--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABD/10/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABD/10/seed1/result_data_RandomForest.xlsx
@@ -485,10 +485,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-20.5944</v>
+        <v>-20.09709999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>8.290699999999999</v>
+        <v>8.544899999999995</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -527,7 +527,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-20.02419999999997</v>
+        <v>-20.26029999999997</v>
       </c>
       <c r="B7" t="n">
         <v>9.43</v>
@@ -578,7 +578,7 @@
         <v>-12.45</v>
       </c>
       <c r="D10" t="n">
-        <v>-7.681499999999999</v>
+        <v>-7.428200000000004</v>
       </c>
     </row>
     <row r="11">
@@ -600,7 +600,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>5.1622</v>
+        <v>5.329799999999998</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -620,7 +620,7 @@
         <v>-15.83</v>
       </c>
       <c r="D13" t="n">
-        <v>-8.644699999999995</v>
+        <v>-8.320699999999993</v>
       </c>
     </row>
     <row r="14">
@@ -653,7 +653,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.98590000000002</v>
+        <v>-22.01480000000002</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -684,7 +684,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>6.458799999999997</v>
+        <v>6.677199999999999</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -698,7 +698,7 @@
         <v>-18.24</v>
       </c>
       <c r="B19" t="n">
-        <v>8.752900000000004</v>
+        <v>8.568100000000005</v>
       </c>
       <c r="C19" t="n">
         <v>-12.15</v>
@@ -712,7 +712,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>9.541999999999987</v>
+        <v>9.57279999999999</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-21.994</v>
+        <v>-21.8789</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.26139999999997</v>
+        <v>-21.18039999999997</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -858,7 +858,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.094299999999993</v>
+        <v>-7.026699999999995</v>
       </c>
     </row>
     <row r="31">
@@ -866,7 +866,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>4.724199999999997</v>
+        <v>4.607799999999998</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.1851</v>
+        <v>-21.1748</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -989,16 +989,16 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-20.32679999999999</v>
+        <v>-20.28509999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>8.360200000000003</v>
+        <v>8.414600000000004</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
       </c>
       <c r="D40" t="n">
-        <v>-8.061500000000002</v>
+        <v>-8.041000000000006</v>
       </c>
     </row>
     <row r="41">
@@ -1020,7 +1020,7 @@
         <v>-18.32</v>
       </c>
       <c r="B42" t="n">
-        <v>8.716000000000003</v>
+        <v>8.649299999999998</v>
       </c>
       <c r="C42" t="n">
         <v>-13.45</v>
@@ -1054,7 +1054,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-6.953500000000002</v>
+        <v>-6.839300000000001</v>
       </c>
     </row>
     <row r="45">
@@ -1090,7 +1090,7 @@
         <v>-21.83</v>
       </c>
       <c r="B47" t="n">
-        <v>4.949600000000003</v>
+        <v>4.949900000000002</v>
       </c>
       <c r="C47" t="n">
         <v>-11.84</v>
@@ -1104,7 +1104,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>6.500300000000006</v>
+        <v>7.261800000000006</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-22.26479999999999</v>
+        <v>-22.2507</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-21.93470000000001</v>
+        <v>-22.00690000000002</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1314,7 +1314,7 @@
         <v>-21.46</v>
       </c>
       <c r="B63" t="n">
-        <v>4.804599999999999</v>
+        <v>4.865499999999997</v>
       </c>
       <c r="C63" t="n">
         <v>-9.970000000000001</v>
@@ -1328,7 +1328,7 @@
         <v>-21.62</v>
       </c>
       <c r="B64" t="n">
-        <v>5.5877</v>
+        <v>5.943700000000002</v>
       </c>
       <c r="C64" t="n">
         <v>-10.62</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-21.38419999999999</v>
+        <v>-21.4149</v>
       </c>
       <c r="B66" t="n">
         <v>5.18</v>
@@ -1496,7 +1496,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>6.079199999999997</v>
+        <v>5.782899999999996</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1566,7 +1566,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>4.996700000000006</v>
+        <v>5.017100000000004</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1678,13 +1678,13 @@
         <v>-22.69</v>
       </c>
       <c r="B89" t="n">
-        <v>4.751399999999994</v>
+        <v>4.732599999999992</v>
       </c>
       <c r="C89" t="n">
         <v>-14.65</v>
       </c>
       <c r="D89" t="n">
-        <v>-8.417399999999997</v>
+        <v>-8.544199999999998</v>
       </c>
     </row>
     <row r="90">
@@ -1712,7 +1712,7 @@
         <v>-12.06</v>
       </c>
       <c r="D91" t="n">
-        <v>-7.6564</v>
+        <v>-7.6754</v>
       </c>
     </row>
     <row r="92">
@@ -1748,7 +1748,7 @@
         <v>-21.6</v>
       </c>
       <c r="B94" t="n">
-        <v>4.988599999999993</v>
+        <v>4.884099999999993</v>
       </c>
       <c r="C94" t="n">
         <v>-9.49</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-22.03290000000002</v>
+        <v>-22.04320000000003</v>
       </c>
       <c r="B100" t="n">
         <v>4.73</v>
